--- a/data/trans_dic/P2A_lim_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1122843073440792</v>
+        <v>0.107771305613472</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09068399076041422</v>
+        <v>0.09213925372309978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07480593145554316</v>
+        <v>0.07654679683668042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1839008306766601</v>
+        <v>0.1818691672505129</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1133951876144397</v>
+        <v>0.1139323376924976</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1101084414395377</v>
+        <v>0.1083150624310384</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09694278980978294</v>
+        <v>0.09622533218331321</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1775473874867939</v>
+        <v>0.1778696094417929</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1186861635652728</v>
+        <v>0.1169590767212684</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1059664975777878</v>
+        <v>0.1073698711456383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09031986810914173</v>
+        <v>0.09149636102470261</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1890812896802819</v>
+        <v>0.1900125554569641</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1691720573680622</v>
+        <v>0.1649336815758888</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1320770250222177</v>
+        <v>0.1315180691402838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1098176605243195</v>
+        <v>0.1095925297691259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2610645542623341</v>
+        <v>0.2629305484841149</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1612729601432196</v>
+        <v>0.1592288756819854</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1517414905507071</v>
+        <v>0.1529030524511046</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1340901144989041</v>
+        <v>0.1343900149561152</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.233194839873075</v>
+        <v>0.2336099503727735</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1553213882326095</v>
+        <v>0.1558031788593567</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1357791081681172</v>
+        <v>0.1371589367290354</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1166047297101658</v>
+        <v>0.1174330318432486</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2363901759595803</v>
+        <v>0.2337834345526875</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.0589686759927611</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1606826156980326</v>
+        <v>0.1606826156980327</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05735401433057979</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05034556190228111</v>
+        <v>0.04975191888598188</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08984516874438719</v>
+        <v>0.08912545354326513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04480769900403819</v>
+        <v>0.04558162670426497</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1374357263884552</v>
+        <v>0.1365495162256658</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04360307339364785</v>
+        <v>0.04380636105832139</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09897016309084798</v>
+        <v>0.09752329770510165</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06302973078924001</v>
+        <v>0.0605691971001108</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1519646406532366</v>
+        <v>0.1509946523399612</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05119603720902473</v>
+        <v>0.05075594879812813</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09757217597998576</v>
+        <v>0.09851660289715072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05864804005852303</v>
+        <v>0.05804371593139259</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1488179611534805</v>
+        <v>0.1485972966963361</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08074419807001601</v>
+        <v>0.07966489863958834</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1326051344459185</v>
+        <v>0.1322338241862563</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07611452007565686</v>
+        <v>0.0759873193132265</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1877262979766813</v>
+        <v>0.1862402302459404</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07304961840613818</v>
+        <v>0.07339068509877236</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1379302911326338</v>
+        <v>0.1362758384360732</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09773164447264612</v>
+        <v>0.09587889412345728</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1916322632590197</v>
+        <v>0.1900456333480778</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07277562818368719</v>
+        <v>0.07194792924886072</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1277007594762033</v>
+        <v>0.1283509717483765</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08339301256943804</v>
+        <v>0.08219527198672594</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1798055385482411</v>
+        <v>0.1802310134678197</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03369769778813002</v>
+        <v>0.0329154215586468</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06391777419735617</v>
+        <v>0.06355152000832302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04703158889829046</v>
+        <v>0.04742540535347241</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09189858618889231</v>
+        <v>0.09150998090416354</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04587003434964631</v>
+        <v>0.04473782740934944</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07036996174280107</v>
+        <v>0.07246122050493035</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04655470984602738</v>
+        <v>0.04584147703919366</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1022198314343095</v>
+        <v>0.1021160668125383</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04134960530360551</v>
+        <v>0.04140555050281486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07262646633814492</v>
+        <v>0.07243777714635884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05209606242307298</v>
+        <v>0.05242481000585529</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.101819830590346</v>
+        <v>0.1011608110792199</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0579273304290245</v>
+        <v>0.05774830409857063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1029854446437659</v>
+        <v>0.100474003794595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08357055164174501</v>
+        <v>0.08445774077890661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.130652803247601</v>
+        <v>0.1292639257031949</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07641387852344253</v>
+        <v>0.0756087726038308</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1099016657491817</v>
+        <v>0.1092502398440352</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08353681840146446</v>
+        <v>0.08194742613865198</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1369760982586673</v>
+        <v>0.1376345705111109</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06088222056752396</v>
+        <v>0.06175290437005761</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.100144510608037</v>
+        <v>0.1010744500892406</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07818474121863909</v>
+        <v>0.07868606550454349</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1286717332119321</v>
+        <v>0.1288358810673048</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05429972335164891</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09827469061847033</v>
+        <v>0.09827469061847034</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06055739275628139</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02046081072153737</v>
+        <v>0.02051103009232631</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0436556359896366</v>
+        <v>0.04256605615352874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03562221072884493</v>
+        <v>0.03585789141743864</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07778578514522271</v>
+        <v>0.08193732320712718</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03656641781007819</v>
+        <v>0.03666574286061968</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08644942660024874</v>
+        <v>0.0857067352599567</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04900354277138783</v>
+        <v>0.04894070777418198</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08860810673118799</v>
+        <v>0.08826179861557494</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03337778903993038</v>
+        <v>0.03230302697232641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07055182427970065</v>
+        <v>0.0719840162990544</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04592774574050042</v>
+        <v>0.04732297899615093</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08812265920847503</v>
+        <v>0.08845697595062547</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05719127690979842</v>
+        <v>0.05958710487981971</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09463039616757613</v>
+        <v>0.09310449116863986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07871919483252941</v>
+        <v>0.08039249356907377</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1175147338081533</v>
+        <v>0.1217231418172229</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09019675747956342</v>
+        <v>0.09126678060581946</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1557688316514726</v>
+        <v>0.1476088417777509</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09841352984049621</v>
+        <v>0.09701167286193239</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1221778331079608</v>
+        <v>0.1226195704836651</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06330000828022429</v>
+        <v>0.06346626100460427</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1129836990636172</v>
+        <v>0.1118715498463075</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08020919539520678</v>
+        <v>0.08052100615667823</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1140523319296401</v>
+        <v>0.1146315490515516</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.07888395843405355</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1405495082112621</v>
+        <v>0.1405495082112622</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05818008072588417</v>
+        <v>0.05788086866344976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08553579879943297</v>
+        <v>0.08505096323001132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06106367981897099</v>
+        <v>0.0609477011934155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1234649253288308</v>
+        <v>0.12388191521706</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07100550854899908</v>
+        <v>0.07118584699496704</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1046608874678957</v>
+        <v>0.1039968116474963</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07702907764235563</v>
+        <v>0.07789213324657672</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1347468019016415</v>
+        <v>0.1344369853035132</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06680176053853809</v>
+        <v>0.06666813721800635</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09650219320903096</v>
+        <v>0.09751478046840066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07174111753649318</v>
+        <v>0.07237694096555303</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1330866181947895</v>
+        <v>0.1329632047909075</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0752555320811245</v>
+        <v>0.07621533567645151</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1056305064809929</v>
+        <v>0.1067114390893317</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07952648183676587</v>
+        <v>0.07916117498351892</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1484717337594921</v>
+        <v>0.1491746242149181</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09059848679868021</v>
+        <v>0.09025305472683826</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1270975786933882</v>
+        <v>0.1259107976691538</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09731910608146045</v>
+        <v>0.09791254032952108</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1554331606128224</v>
+        <v>0.154755674455699</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07965111153253156</v>
+        <v>0.07988189116568976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1120659867300911</v>
+        <v>0.1138242624930926</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08532440086703753</v>
+        <v>0.08555263143287392</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1481266897737845</v>
+        <v>0.1485691745433129</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>65384</v>
+        <v>62756</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>94579</v>
+        <v>96097</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>84298</v>
+        <v>86259</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>91288</v>
+        <v>90279</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>104473</v>
+        <v>104968</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>123314</v>
+        <v>121305</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>121825</v>
+        <v>120924</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>110597</v>
+        <v>110797</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>178460</v>
+        <v>175863</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>229193</v>
+        <v>232228</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>215283</v>
+        <v>218087</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>211641</v>
+        <v>212683</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>98510</v>
+        <v>96042</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>137750</v>
+        <v>137167</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>123752</v>
+        <v>123498</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>129592</v>
+        <v>130518</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>148584</v>
+        <v>146701</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>169940</v>
+        <v>171240</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>168507</v>
+        <v>168884</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>145260</v>
+        <v>145519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>233546</v>
+        <v>234270</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>293674</v>
+        <v>296658</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>277934</v>
+        <v>279908</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>264594</v>
+        <v>261676</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>54132</v>
+        <v>53494</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>87691</v>
+        <v>86989</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>40350</v>
+        <v>41047</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>131222</v>
+        <v>130376</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46014</v>
+        <v>46229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>108206</v>
+        <v>106624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>63176</v>
+        <v>60710</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>169365</v>
+        <v>168284</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>109073</v>
+        <v>108136</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>201910</v>
+        <v>203864</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>111597</v>
+        <v>110447</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>307948</v>
+        <v>307491</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>86817</v>
+        <v>85656</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>129426</v>
+        <v>129063</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>68542</v>
+        <v>68428</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>179239</v>
+        <v>177820</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77089</v>
+        <v>77449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>150801</v>
+        <v>148992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>97958</v>
+        <v>96101</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>213575</v>
+        <v>211806</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>155048</v>
+        <v>153285</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>264256</v>
+        <v>265602</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>158683</v>
+        <v>156404</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>372070</v>
+        <v>372950</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>37733</v>
+        <v>36857</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>56502</v>
+        <v>56178</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>38450</v>
+        <v>38772</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>96170</v>
+        <v>95763</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>45545</v>
+        <v>44421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61630</v>
+        <v>63461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>35896</v>
+        <v>35346</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>106668</v>
+        <v>106560</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>87358</v>
+        <v>87476</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>127807</v>
+        <v>127474</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>82759</v>
+        <v>83281</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>212803</v>
+        <v>211425</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>64863</v>
+        <v>64663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>91037</v>
+        <v>88817</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68321</v>
+        <v>69046</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>136725</v>
+        <v>135272</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>75873</v>
+        <v>75074</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>96251</v>
+        <v>95681</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64412</v>
+        <v>63186</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>142937</v>
+        <v>143624</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>128623</v>
+        <v>130463</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>176232</v>
+        <v>177869</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>124203</v>
+        <v>125000</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>268923</v>
+        <v>269266</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9091</v>
+        <v>9113</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21960</v>
+        <v>21412</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18012</v>
+        <v>18131</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74506</v>
+        <v>78482</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12475</v>
+        <v>12509</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39057</v>
+        <v>38721</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23997</v>
+        <v>23966</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>79616</v>
+        <v>79305</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>26217</v>
+        <v>25373</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>67364</v>
+        <v>68731</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>45713</v>
+        <v>47102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>163587</v>
+        <v>164207</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25410</v>
+        <v>26474</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>47601</v>
+        <v>46834</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39803</v>
+        <v>40649</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>112559</v>
+        <v>116590</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30771</v>
+        <v>31136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>70374</v>
+        <v>66688</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>48193</v>
+        <v>47506</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>109779</v>
+        <v>110176</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>49719</v>
+        <v>49850</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>107878</v>
+        <v>106816</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>79834</v>
+        <v>80145</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>211721</v>
+        <v>212797</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>187430</v>
+        <v>186466</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>291333</v>
+        <v>289682</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>204597</v>
+        <v>204209</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>426633</v>
+        <v>428073</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>235077</v>
+        <v>235674</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>370586</v>
+        <v>368235</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>271123</v>
+        <v>274161</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>495794</v>
+        <v>494654</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>436365</v>
+        <v>435493</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>670382</v>
+        <v>677416</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>492883</v>
+        <v>497251</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>949566</v>
+        <v>948686</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>242440</v>
+        <v>245532</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>359775</v>
+        <v>363457</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>266458</v>
+        <v>265234</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>513043</v>
+        <v>515472</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>299944</v>
+        <v>298800</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>450031</v>
+        <v>445828</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>342539</v>
+        <v>344627</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>571909</v>
+        <v>569416</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>520300</v>
+        <v>521808</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>778501</v>
+        <v>790715</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>586204</v>
+        <v>587772</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1056876</v>
+        <v>1060033</v>
       </c>
     </row>
     <row r="24">
